--- a/biology/Zoologie/Clarkcomanthus/Clarkcomanthus.xlsx
+++ b/biology/Zoologie/Clarkcomanthus/Clarkcomanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clarkcomanthus est un genre de crinoïdes de la famille des Comatulidae (ordre des Comatulida).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Clarkcomanthus a été créé en 1986 par Francis W. E. Rowe (d), Anne K. Hoggett (d), R. A. Birtles et Lyle L. Vail (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Clarkcomanthus a été créé en 1986 par Francis W. E. Rowe (d), Anne K. Hoggett (d), R. A. Birtles et Lyle L. Vail (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de grosses comatules pourvues de nombreux bras (jusqu'à 125), dont la bouche est excentrée à la maturité. Le centrodorsal est circulaire à pentagonal. Les espèces de ce genre ont un nombre de cirrhes réduit, presque toujours moins de vingt (en une seule rangée) et souvent aucun à l'âge adulte[3]. Deux pinnules orales (la seconde et la troisième) portent de petits peignes formés de pointes, très variables suivant les espèces[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de grosses comatules pourvues de nombreux bras (jusqu'à 125), dont la bouche est excentrée à la maturité. Le centrodorsal est circulaire à pentagonal. Les espèces de ce genre ont un nombre de cirrhes réduit, presque toujours moins de vingt (en une seule rangée) et souvent aucun à l'âge adulte. Deux pinnules orales (la seconde et la troisième) portent de petits peignes formés de pointes, très variables suivant les espèces. 
 			Le centrodorsal sans cirrhes d'une Clarkcomanthus littoralis
 			Celle d'une Clarkcomanthus mirabilis
 			Clarkcomanthus alternans
@@ -577,18 +593,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (11 juillet 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (11 juillet 2021) :
 Clarkcomanthus albinotus Rowe, Hoggett, Birtles &amp; Vail, 1986 -- Australie orientale
 Clarkcomanthus alternans (Carpenter, 1881) -- Pacifique ouest
-Clarkcomanthus comanthipinna (Gislén, 1922) -- Pacifique ouest (synonyme de Clarkcomanthus exilis[3])
+Clarkcomanthus comanthipinna (Gislén, 1922) -- Pacifique ouest (synonyme de Clarkcomanthus exilis)
 Clarkcomanthus littoralis (Carpenter, 1888) -- du Japon à l'Australie
 Clarkcomanthus luteofuscum (HL Clark, 1915) -- Pacifique ouest et région indonésienne
 Clarkcomanthus mirabilis (Rowe, Hoggett, Birtles &amp; Vail, (1986) -- Pacifique ouest
 Clarkcomanthus mirus (Rowe, Hoggett, Birtles &amp; Vail, (1986) -- Australie orientale
 Clarkcomanthus perplexum (HL Clark, 1916) -- Mer de Chine méridionale
-Jusqu'en 2015, la plupart des espèces de ce genre faisaient partie du genre Oxycomanthus, qui a été renommé par Charles Messing à la suite d'études génétiques, et a séparé les espèces qui le constituaient entre les genres Clarkcomanthus et Anneissia[4].
+Jusqu'en 2015, la plupart des espèces de ce genre faisaient partie du genre Oxycomanthus, qui a été renommé par Charles Messing à la suite d'études génétiques, et a séparé les espèces qui le constituaient entre les genres Clarkcomanthus et Anneissia.
 			Clarkcomanthus albinotus.
 			Clarkcomanthus alternans
 			Clarkcomanthus comanthipinna.
@@ -623,7 +641,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) F. W. E. Rowe, A. K. Hoggett, R. A. Birtles et L. L. Vail, « Revision of some comasterid genera from Australia (Echinodermata: Crinoidea), with descriptions of two new genera and nine new species », Zoological Journal of the Linnean Society, Linnean Society of London et OUP, vol. 86, no 3,‎ mars 1986, p. 197-277 (ISSN 1096-3642 et 0024-4082, OCLC 01799617, DOI 10.1111/J.1096-3642.1986.TB01812.X)</t>
         </is>
